--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4469D91-861E-4325-8DD5-7E12FD7C0E6D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HW</t>
   </si>
@@ -43,9 +42,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Grade</t>
   </si>
   <si>
     <t>Total Grades</t>
@@ -66,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +85,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -173,19 +182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -243,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,46 +247,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -299,6 +316,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,23 +408,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,23 +443,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,52 +638,52 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>0.15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>0.2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>0.3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="13">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="13">
         <v>0.35</v>
       </c>
       <c r="I5" s="2"/>
@@ -705,310 +693,375 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" ref="C6:D6" si="0">COUNT(C7:C16)</f>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" ref="E6" si="1">COUNT(E7:E16)</f>
+      <c r="C6" s="8">
+        <f>COUNT(C8:C21)</f>
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <f>COUNT(D8:D21)</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <f>COUNT(E8:E21)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="13">
-        <f t="shared" ref="F6" si="2">COUNT(F7:F16)</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" ref="G6" si="3">COUNT(G7:G16)</f>
+      <c r="F6" s="8">
+        <f>COUNT(F8:F21)</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <f>COUNT(G8:G21)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6" si="4">COUNT(H7:H16)</f>
-        <v>0</v>
+      <c r="H6" s="8">
+        <f>COUNT(H8:H21)</f>
+        <v>1</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="23">
+        <f>IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="D7" s="9">
+        <f>IF(D6&lt;&gt;0,IF(D5&lt;&gt;0,(SUM(D8:D21)/D6)*D5,0), 0)</f>
+        <v>0.19228571428571431</v>
+      </c>
+      <c r="E7" s="9">
+        <f>IF(E6&lt;&gt;0,IF(E5&lt;&gt;0,(SUM(E8:E21)/E6)*E5,0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <f>IF(F6&lt;&gt;0,IF(F5&lt;&gt;0,(SUM(F8:F21)/F6)*F5,0), 0)</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G7" s="9">
+        <f>IF(G6&lt;&gt;0,IF(G5&lt;&gt;0,(SUM(G8:G21)/G6)*G5,0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>IF(H6&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H8:H21)/H6)*H5,0), 0)</f>
+        <v>0.315</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7">
+        <f>SUM(C7:H7)</f>
+        <v>0.90985714285714292</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
         <v>0.95</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="19">
         <v>0.8</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>0.9</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
         <v>0.9</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13">
         <v>0</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14">
-        <f t="shared" ref="C18:G18" si="5">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C7:C16)/C6)*C5,0), 0)</f>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="5"/>
-        <v>0.1865</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="5"/>
-        <v>0.24800000000000003</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <f>IF(H6&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H7:H16)/H6)*H5,0), 0)</f>
-        <v>0</v>
-      </c>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <f>C18+D18+E18+F18+G18+H18</f>
-        <v>0.55116666666666669</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1020,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,46 +268,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,8 +632,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -668,22 +668,22 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.15</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0.3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>0.35</v>
       </c>
       <c r="I5" s="2"/>
@@ -701,27 +701,27 @@
         <v>9</v>
       </c>
       <c r="C6" s="8">
-        <f>COUNT(C8:C21)</f>
+        <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
         <v>14</v>
       </c>
       <c r="D6" s="8">
-        <f>COUNT(D8:D21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNT(E8:E21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNT(F8:F21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" s="8">
-        <f>COUNT(G8:G21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f>COUNT(H8:H21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
@@ -735,34 +735,34 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
-        <f>IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
+      <c r="C7" s="22">
+        <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
         <v>0.12857142857142856</v>
       </c>
       <c r="D7" s="9">
-        <f>IF(D6&lt;&gt;0,IF(D5&lt;&gt;0,(SUM(D8:D21)/D6)*D5,0), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.19228571428571431</v>
       </c>
       <c r="E7" s="9">
-        <f>IF(E6&lt;&gt;0,IF(E5&lt;&gt;0,(SUM(E8:E21)/E6)*E5,0), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <f>IF(F6&lt;&gt;0,IF(F5&lt;&gt;0,(SUM(F8:F21)/F6)*F5,0), 0)</f>
-        <v>0.27400000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.24400000000000002</v>
       </c>
       <c r="G7" s="9">
-        <f>IF(G6&lt;&gt;0,IF(G5&lt;&gt;0,(SUM(G8:G21)/G6)*G5,0), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>IF(H6&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H8:H21)/H6)*H5,0), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.315</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.90985714285714292</v>
+        <v>0.87985714285714289</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -771,18 +771,18 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
         <v>0.95</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="19">
+      <c r="E8" s="10"/>
+      <c r="F8" s="18">
         <v>0.8</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>0.9</v>
       </c>
       <c r="I8" s="2"/>
@@ -794,18 +794,18 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
         <v>0.9</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="20">
+      <c r="E9" s="12"/>
+      <c r="F9" s="19">
         <v>0.88</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -815,18 +815,18 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
         <v>0.9</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="20">
+      <c r="E10" s="12"/>
+      <c r="F10" s="19">
         <v>0.8</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -836,18 +836,18 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
         <v>0.98</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -857,18 +857,18 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -878,18 +878,18 @@
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -899,16 +899,16 @@
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -918,14 +918,14 @@
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -935,14 +935,14 @@
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -952,14 +952,14 @@
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -969,14 +969,14 @@
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -986,14 +986,14 @@
       <c r="B19" s="6">
         <v>12</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1003,14 +1003,14 @@
       <c r="B20" s="6">
         <v>13</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1020,14 +1020,14 @@
       <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D14" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -737,11 +737,11 @@
       </c>
       <c r="C7" s="22">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0.12857142857142856</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19228571428571431</v>
+        <v>0.1865</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.24400000000000002</v>
+        <v>0.21600000000000003</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -762,7 +762,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.87985714285714289</v>
+        <v>0.83416666666666672</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -860,13 +860,9 @@
       <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="2"/>
@@ -881,13 +877,9 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="2"/>
@@ -902,9 +894,7 @@
       <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -952,9 +942,7 @@
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -969,9 +957,7 @@
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -986,9 +972,7 @@
       <c r="B19" s="6">
         <v>12</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1003,9 +987,7 @@
       <c r="B20" s="6">
         <v>13</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1020,9 +1002,7 @@
       <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB3EA4-B947-400F-80ED-6CC37F092615}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -62,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +75,6 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,16 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,6 +396,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -443,6 +448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D12:D14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,8 +654,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -702,7 +724,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
@@ -735,9 +757,9 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0.11666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
@@ -749,7 +771,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.21600000000000003</v>
+        <v>0.246</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -762,7 +784,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.83416666666666672</v>
+        <v>0.86749999999999994</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -771,7 +793,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
       <c r="D8" s="16">
@@ -794,7 +816,7 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="17">
@@ -815,7 +837,7 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="17">
@@ -836,7 +858,7 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
       <c r="D11" s="17">
@@ -844,7 +866,7 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="19">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -857,7 +879,7 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
       <c r="D12" s="11"/>
@@ -874,7 +896,7 @@
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>1</v>
       </c>
       <c r="D13" s="11"/>
@@ -891,7 +913,7 @@
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>1</v>
       </c>
       <c r="D14" s="11"/>
@@ -908,7 +930,7 @@
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="19">
         <v>0</v>
       </c>
       <c r="D15" s="11"/>
@@ -925,7 +947,7 @@
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="19">
         <v>0</v>
       </c>
       <c r="D16" s="11"/>
@@ -942,7 +964,9 @@
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1041,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1053,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB3EA4-B947-400F-80ED-6CC37F092615}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3030" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,23 +395,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -448,23 +430,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,11 +689,11 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -736,7 +701,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -759,11 +724,11 @@
       </c>
       <c r="C7" s="20">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0.12</v>
+        <v>0.11785714285714285</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1865</v>
+        <v>0.18733333333333335</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -771,7 +736,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.246</v>
+        <v>0.23400000000000004</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -784,7 +749,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.86749999999999994</v>
+        <v>0.85419047619047617</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -882,9 +847,13 @@
       <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="17">
+        <v>0.94</v>
+      </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="19">
+        <v>0.6</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="2"/>
@@ -899,9 +868,13 @@
       <c r="C13" s="19">
         <v>1</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="17">
+        <v>0.95</v>
+      </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="19">
+        <v>0.8</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="2"/>
@@ -981,7 +954,9 @@
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -996,7 +971,9 @@
       <c r="B19" s="6">
         <v>12</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1011,7 +988,9 @@
       <c r="B20" s="6">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1026,7 +1005,9 @@
       <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1065,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1077,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3030" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C7" s="20">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0.11785714285714285</v>
+        <v>0.12857142857142856</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.23400000000000004</v>
+        <v>0.22899999999999998</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -749,7 +749,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.85419047619047617</v>
+        <v>0.85990476190476195</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -954,8 +954,8 @@
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="12">
-        <v>0</v>
+      <c r="C18" s="19">
+        <v>1</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912F122-ABA0-4EB3-867D-49E463DEF6EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,6 +396,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -430,6 +448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +759,7 @@
       </c>
       <c r="C7" s="20">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0.12857142857142856</v>
+        <v>0.11785714285714285</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
@@ -749,7 +784,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.85990476190476195</v>
+        <v>0.84919047619047627</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -887,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -1046,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1058,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912F122-ABA0-4EB3-867D-49E463DEF6EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5EF3-541C-4CB3-A88F-FDB0E677B81C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.18733333333333335</v>
+        <v>0.18771428571428572</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -784,7 +784,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.84919047619047627</v>
+        <v>0.84957142857142864</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -924,7 +924,9 @@
       <c r="C14" s="19">
         <v>0</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>0.95</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5EF3-541C-4CB3-A88F-FDB0E677B81C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,23 +395,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -448,23 +430,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +701,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -771,7 +736,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.22899999999999998</v>
+        <v>0.19628571428571426</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -784,7 +749,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.84957142857142864</v>
+        <v>0.81685714285714295</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -928,7 +893,9 @@
         <v>0.95</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
@@ -1083,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1095,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="7230" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.18771428571428572</v>
+        <v>0.17675000000000002</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19628571428571426</v>
+        <v>0.24342857142857141</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -744,12 +744,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.315</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.81685714285714295</v>
+        <v>0.8180357142857142</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -910,7 +910,9 @@
       <c r="C15" s="19">
         <v>0</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB8B85-0979-448D-A675-E3164074CE29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7230" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="7230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,6 +403,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -430,6 +455,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +770,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.17675000000000002</v>
+        <v>0.16425000000000001</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -744,12 +786,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.8180357142857142</v>
+        <v>0.81253571428571436</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -770,7 +812,7 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -911,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1052,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1064,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4367.0U1-Testing/Grades/Grades.xlsx
+++ b/SE-4367.0U1-Testing/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4367.0U1-Testing\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB8B85-0979-448D-A675-E3164074CE29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B0261-716B-4E5E-840A-D0549D91C201}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -651,7 +644,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
